--- a/superseeker2.xlsx
+++ b/superseeker2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riccardo\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\itsMe\git\gttrcr\superseeker2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="244">
   <si>
     <t>T001</t>
   </si>
@@ -722,12 +722,6 @@
     <t>TEST NAME</t>
   </si>
   <si>
-    <t>Superseeker</t>
-  </si>
-  <si>
-    <t>Ultraseeker</t>
-  </si>
-  <si>
     <t>ü</t>
   </si>
   <si>
@@ -747,13 +741,28 @@
   </si>
   <si>
     <t>En(z)   =       exponential generating function</t>
+  </si>
+  <si>
+    <t>superseeker</t>
+  </si>
+  <si>
+    <t>superseeker2</t>
+  </si>
+  <si>
+    <t>simple_search</t>
+  </si>
+  <si>
+    <t>u_times_b</t>
+  </si>
+  <si>
+    <t>u_plus_d</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +780,17 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -793,7 +813,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +826,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1087,19 +1113,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M116"/>
+  <dimension ref="A1:M118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="12" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -1112,13 +1139,16 @@
         <v>231</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -1129,13 +1159,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1146,13 +1179,13 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1163,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1180,13 +1213,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1197,10 +1230,10 @@
         <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1211,10 +1244,10 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1225,10 +1258,10 @@
         <v>13</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1239,10 +1272,10 @@
         <v>15</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1253,10 +1286,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1267,10 +1300,10 @@
         <v>19</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1281,10 +1314,13 @@
         <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1295,10 +1331,13 @@
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>235</v>
+        <v>232</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1309,10 +1348,10 @@
         <v>25</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1323,10 +1362,10 @@
         <v>27</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1337,10 +1376,10 @@
         <v>29</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1351,10 +1390,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1365,10 +1404,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1379,10 +1418,10 @@
         <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1393,10 +1432,10 @@
         <v>37</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1407,10 +1446,10 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1421,10 +1460,10 @@
         <v>41</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1435,10 +1474,10 @@
         <v>43</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1449,10 +1488,10 @@
         <v>45</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1463,10 +1502,10 @@
         <v>47</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1477,10 +1516,10 @@
         <v>49</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1491,10 +1530,10 @@
         <v>51</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1505,10 +1544,10 @@
         <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1519,10 +1558,10 @@
         <v>55</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1533,10 +1572,10 @@
         <v>57</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1547,10 +1586,10 @@
         <v>59</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1561,13 +1600,13 @@
         <v>61</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1575,13 +1614,13 @@
         <v>63</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1589,13 +1628,13 @@
         <v>65</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
@@ -1603,13 +1642,13 @@
         <v>67</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
@@ -1617,13 +1656,16 @@
         <v>69</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
@@ -1631,13 +1673,16 @@
         <v>71</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
@@ -1645,13 +1690,13 @@
         <v>73</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
@@ -1659,13 +1704,16 @@
         <v>75</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
@@ -1673,13 +1721,16 @@
         <v>77</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
@@ -1687,13 +1738,16 @@
         <v>79</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
@@ -1701,13 +1755,16 @@
         <v>81</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>232</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1715,13 +1772,13 @@
         <v>83</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1729,13 +1786,13 @@
         <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1743,13 +1800,13 @@
         <v>87</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1757,13 +1814,13 @@
         <v>89</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1771,13 +1828,13 @@
         <v>91</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -1785,10 +1842,10 @@
         <v>93</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1799,10 +1856,10 @@
         <v>95</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1813,10 +1870,10 @@
         <v>97</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1827,10 +1884,10 @@
         <v>99</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1841,10 +1898,10 @@
         <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1855,10 +1912,10 @@
         <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1869,10 +1926,10 @@
         <v>105</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1883,10 +1940,10 @@
         <v>107</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1897,10 +1954,10 @@
         <v>109</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1911,10 +1968,10 @@
         <v>111</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1925,10 +1982,10 @@
         <v>113</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1939,10 +1996,10 @@
         <v>115</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1953,10 +2010,10 @@
         <v>117</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1967,10 +2024,10 @@
         <v>119</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1981,10 +2038,10 @@
         <v>121</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1995,10 +2052,10 @@
         <v>123</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2009,10 +2066,10 @@
         <v>125</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2023,10 +2080,10 @@
         <v>127</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2037,10 +2094,10 @@
         <v>129</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2051,10 +2108,10 @@
         <v>131</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2065,10 +2122,10 @@
         <v>133</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2079,10 +2136,10 @@
         <v>135</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2093,10 +2150,10 @@
         <v>137</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2107,10 +2164,10 @@
         <v>139</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2121,10 +2178,10 @@
         <v>141</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2135,10 +2192,10 @@
         <v>143</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2149,10 +2206,10 @@
         <v>145</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2163,10 +2220,10 @@
         <v>147</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2177,10 +2234,10 @@
         <v>149</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2191,10 +2248,10 @@
         <v>151</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2205,10 +2262,10 @@
         <v>153</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2219,10 +2276,10 @@
         <v>155</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2233,10 +2290,10 @@
         <v>157</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2247,10 +2304,10 @@
         <v>159</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2261,10 +2318,10 @@
         <v>161</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2275,10 +2332,10 @@
         <v>163</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2289,10 +2346,10 @@
         <v>165</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2303,10 +2360,10 @@
         <v>167</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2317,10 +2374,10 @@
         <v>169</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2331,10 +2388,10 @@
         <v>171</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2345,10 +2402,10 @@
         <v>173</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2359,10 +2416,10 @@
         <v>175</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2373,10 +2430,10 @@
         <v>177</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2387,10 +2444,10 @@
         <v>179</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2401,10 +2458,10 @@
         <v>181</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2415,10 +2472,10 @@
         <v>183</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2429,10 +2486,10 @@
         <v>185</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2443,10 +2500,10 @@
         <v>187</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2457,10 +2514,10 @@
         <v>189</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2471,10 +2528,10 @@
         <v>191</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2485,10 +2542,10 @@
         <v>193</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2499,10 +2556,10 @@
         <v>195</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2513,10 +2570,10 @@
         <v>197</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2527,10 +2584,10 @@
         <v>199</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2541,10 +2598,10 @@
         <v>201</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2555,10 +2612,10 @@
         <v>203</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2569,10 +2626,10 @@
         <v>205</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2583,10 +2640,10 @@
         <v>207</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2597,10 +2654,10 @@
         <v>209</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2611,10 +2668,10 @@
         <v>211</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2625,10 +2682,10 @@
         <v>213</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2639,10 +2696,10 @@
         <v>215</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2653,10 +2710,10 @@
         <v>217</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2667,10 +2724,10 @@
         <v>219</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2681,13 +2738,13 @@
         <v>221</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -2695,13 +2752,13 @@
         <v>223</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -2709,13 +2766,13 @@
         <v>225</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
@@ -2723,13 +2780,13 @@
         <v>227</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
@@ -2737,10 +2794,32 @@
         <v>229</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="C117" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="C118" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>

--- a/superseeker2.xlsx
+++ b/superseeker2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17616"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="242">
   <si>
     <t>T001</t>
   </si>
@@ -749,20 +749,14 @@
     <t>superseeker2</t>
   </si>
   <si>
-    <t>simple_search</t>
-  </si>
-  <si>
-    <t>u_times_b</t>
-  </si>
-  <si>
-    <t>u_plus_d</t>
+    <t>m</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -781,24 +775,19 @@
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -827,10 +816,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,25 +1102,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:G116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+      <selection activeCell="F1" sqref="F1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18.600000000000001"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="49.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="1"/>
+    <col min="7" max="7" width="49.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" ht="15">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="14.4">
       <c r="A1" s="2" t="s">
         <v>230</v>
       </c>
@@ -1144,14 +1132,11 @@
       <c r="D1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="M1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1164,14 +1149,11 @@
       <c r="D2" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1184,11 +1166,11 @@
       <c r="D3" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1201,11 +1183,11 @@
       <c r="D4" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1218,11 +1200,11 @@
       <c r="D5" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1218,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1250,7 +1232,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1264,7 +1246,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1278,7 +1260,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
@@ -1292,7 +1274,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1306,41 +1288,35 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="C12" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="C13" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1330,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -1368,7 +1344,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
@@ -1606,7 +1582,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
         <v>62</v>
       </c>
@@ -1620,7 +1596,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
         <v>64</v>
       </c>
@@ -1634,137 +1610,119 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="C35" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="C36" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="C37" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="C38" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="C39" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="C40" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="C41" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="C42" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>82</v>
       </c>
@@ -1778,7 +1736,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>84</v>
       </c>
@@ -1792,7 +1750,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>86</v>
       </c>
@@ -1806,7 +1764,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>88</v>
       </c>
@@ -1820,7 +1778,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>90</v>
       </c>
@@ -1834,7 +1792,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>92</v>
       </c>
@@ -2230,14 +2188,14 @@
       <c r="A76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>233</v>
+      <c r="C76" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2328,14 +2286,14 @@
       <c r="A83" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>233</v>
+      <c r="C83" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2744,7 +2702,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:4">
       <c r="A113" s="1" t="s">
         <v>222</v>
       </c>
@@ -2758,7 +2716,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:4">
       <c r="A114" s="1" t="s">
         <v>224</v>
       </c>
@@ -2772,7 +2730,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:4">
       <c r="A115" s="1" t="s">
         <v>226</v>
       </c>
@@ -2786,7 +2744,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:4">
       <c r="A116" s="1" t="s">
         <v>228</v>
       </c>
@@ -2798,28 +2756,6 @@
       </c>
       <c r="D116" s="3" t="s">
         <v>233</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="C117" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E117" s="6" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="C118" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
   </sheetData>
